--- a/Tab.xlsx
+++ b/Tab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepo\Inequality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6502513E-2DAB-43F3-A022-925EA383CD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2649CC25-0A1B-43A1-B8C4-128F21FF2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{1DEA5922-C344-419E-8C18-ECBDB2806BA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DEA5922-C344-419E-8C18-ECBDB2806BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>PMI</author>
   </authors>
   <commentList>
-    <comment ref="K30" authorId="0" shapeId="0" xr:uid="{6F07F3C6-BDE3-4838-8BDC-194FE0E600CD}">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{6F07F3C6-BDE3-4838-8BDC-194FE0E600CD}">
       <text>
         <r>
           <rPr>
@@ -60,20 +60,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>*** p &lt; 0.001; ** p &lt; 0.01; * p &lt; 0.05</t>
   </si>
   <si>
-    <t>==============</t>
-  </si>
-  <si>
-    <t>==========</t>
-  </si>
-  <si>
-    <t>===========</t>
-  </si>
-  <si>
     <t>TE_1</t>
   </si>
   <si>
@@ -98,21 +89,9 @@
     <t>TE_9</t>
   </si>
   <si>
-    <t>--------------</t>
-  </si>
-  <si>
-    <t>----------</t>
-  </si>
-  <si>
     <t>-----------</t>
   </si>
   <si>
-    <t>gdp_gro</t>
-  </si>
-  <si>
-    <t>-0.86 *</t>
-  </si>
-  <si>
     <t>employ_rate</t>
   </si>
   <si>
@@ -122,36 +101,15 @@
     <t>-0.15 ***</t>
   </si>
   <si>
-    <t>-0.18 ***</t>
-  </si>
-  <si>
-    <t>-0.41 ***</t>
-  </si>
-  <si>
-    <t>-0.31 ***</t>
-  </si>
-  <si>
-    <t>-0.13 *</t>
-  </si>
-  <si>
-    <t>-0.14 *</t>
-  </si>
-  <si>
     <t>Trade</t>
   </si>
   <si>
     <t>0.06 **</t>
   </si>
   <si>
-    <t>0.07 **</t>
-  </si>
-  <si>
     <t>Gov_ex</t>
   </si>
   <si>
-    <t>-0.19 ***</t>
-  </si>
-  <si>
     <t>-0.14 ***</t>
   </si>
   <si>
@@ -188,9 +146,6 @@
     <t>Education_exp</t>
   </si>
   <si>
-    <t>0.08 *</t>
-  </si>
-  <si>
     <t>Health_exp</t>
   </si>
   <si>
@@ -212,37 +167,76 @@
     <t>PIT</t>
   </si>
   <si>
-    <t>-1.83 ***</t>
-  </si>
-  <si>
-    <t>-1.81 ***</t>
-  </si>
-  <si>
     <t>arp_mid:PIT</t>
   </si>
   <si>
-    <t>-1.52 ***</t>
-  </si>
-  <si>
     <t>mrp_all</t>
   </si>
   <si>
-    <t>0.10 ***</t>
-  </si>
-  <si>
     <t>mrp_all:PIT</t>
   </si>
   <si>
-    <t>-1.67 ***</t>
-  </si>
-  <si>
-    <t>corporate taxes as IV on gov exp</t>
-  </si>
-  <si>
-    <t>plot evolution taxes</t>
-  </si>
-  <si>
-    <t>dividir por grupos Tabla9</t>
+    <t>================================================================================================================</t>
+  </si>
+  <si>
+    <t>TE_7</t>
+  </si>
+  <si>
+    <t>-------------</t>
+  </si>
+  <si>
+    <t>lag(gdp_gro)</t>
+  </si>
+  <si>
+    <t>-0.78 *</t>
+  </si>
+  <si>
+    <t>-0.67 *</t>
+  </si>
+  <si>
+    <t>-0.15 **</t>
+  </si>
+  <si>
+    <t>-0.16 **</t>
+  </si>
+  <si>
+    <t>-0.38 ***</t>
+  </si>
+  <si>
+    <t>-0.30 ***</t>
+  </si>
+  <si>
+    <t>-0.15 *</t>
+  </si>
+  <si>
+    <t>-0.16 *</t>
+  </si>
+  <si>
+    <t>0.06 *</t>
+  </si>
+  <si>
+    <t>0.05 *</t>
+  </si>
+  <si>
+    <t>0.09 *</t>
+  </si>
+  <si>
+    <t>Wages</t>
+  </si>
+  <si>
+    <t>-1.75 ***</t>
+  </si>
+  <si>
+    <t>-1.74 ***</t>
+  </si>
+  <si>
+    <t>-1.44 ***</t>
+  </si>
+  <si>
+    <t>0.09 ***</t>
+  </si>
+  <si>
+    <t>-1.59 ***</t>
   </si>
 </sst>
 </file>
@@ -616,186 +610,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A697C411-9F04-4BD6-932C-38C592376F68}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="10" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-0.08</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.36</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-0.31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-0.4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>-0.33</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.32</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-0.34</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-0.39</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-0.35</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-0.27</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-0.37</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-0.35</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-0.77</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-0.15</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-0.02</v>
-      </c>
-      <c r="I4" s="1">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>-0.39</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-0.39</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-0.39</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-0.37</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-0.41</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-0.4</v>
-      </c>
-      <c r="H5" s="1">
-        <v>-0.41</v>
-      </c>
-      <c r="I5" s="1">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="1">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>-0.06</v>
       </c>
@@ -803,39 +789,42 @@
         <v>-0.06</v>
       </c>
       <c r="D7" s="1">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="E7" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="F7" s="1">
         <v>-0.05</v>
       </c>
-      <c r="F7" s="1">
-        <v>-0.04</v>
-      </c>
       <c r="G7" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="H7" s="1">
         <v>-0.05</v>
-      </c>
-      <c r="H7" s="1">
-        <v>-0.06</v>
       </c>
       <c r="I7" s="1">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F8" s="1">
         <v>0.01</v>
@@ -843,14 +832,17 @@
       <c r="G8" s="1">
         <v>0.05</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
+      <c r="H8" s="1">
+        <v>0.03</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>-0.02</v>
       </c>
@@ -861,7 +853,7 @@
         <v>-0.02</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="F9" s="1">
         <v>-0.02</v>
@@ -875,42 +867,48 @@
       <c r="I9" s="1">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>0.04</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1">
         <v>0.04</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>-0.04</v>
       </c>
       <c r="C11" s="1">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="D11" s="1">
         <v>-0.03</v>
@@ -919,45 +917,51 @@
         <v>-0.03</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="G11" s="1">
         <v>-0.04</v>
       </c>
       <c r="H11" s="1">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="I11" s="1">
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="1">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>-0.02</v>
       </c>
@@ -974,125 +978,122 @@
         <v>-0.01</v>
       </c>
       <c r="H13" s="1">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="I13" s="1">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="1">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E21" s="1">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F23" s="1">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G24" s="1">
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G25" s="1">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H27" s="1">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H29" s="1">
-        <v>-0.28999999999999998</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I29" s="1">
-        <v>-0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1100,82 +1101,68 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H31" s="1">
-        <v>-0.26</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I31" s="1">
+        <v>-0.31</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="1">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I33" s="1">
-        <v>-0.02</v>
-      </c>
-      <c r="K33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I35" s="1">
-        <v>-0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="1">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>0</v>
       </c>
     </row>
